--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\github_pre\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF26143-B6FE-4D9A-9C65-02657BF80158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F69C57-6DC1-4BD3-A548-5111ED14885A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Item</t>
   </si>
@@ -99,7 +99,22 @@
     <t>Grupo Integrador</t>
   </si>
   <si>
-    <t>Comentário (%)</t>
+    <t xml:space="preserve"> (%) Total (500%)</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>Em desenvolvimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em desenvolvimento sem informação de um integrante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em desenvolvimento sem informação de dois integrante </t>
+  </si>
+  <si>
+    <t>Em desenvolvimento sem informação de três integrantes</t>
   </si>
 </sst>
 </file>
@@ -169,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -345,23 +360,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -376,9 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,44 +415,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,20 +478,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,10 +529,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +556,8 @@
       <xdr:rowOff>51708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3428852</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>503316</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>280308</xdr:rowOff>
     </xdr:to>
@@ -861,17 +895,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -879,458 +913,475 @@
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="42" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="36"/>
-    </row>
-    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="46" t="s">
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="35" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="38"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="23">
         <v>1</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="J7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="K7" s="23">
         <v>3</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="L7" s="23">
         <v>4</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="17" t="s">
+      <c r="M7" s="23">
+        <v>1</v>
+      </c>
+      <c r="N7" s="43"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="15">
+        <v>44228</v>
+      </c>
+      <c r="H8" s="15">
+        <v>44228</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="15">
+        <v>44228</v>
+      </c>
+      <c r="H9" s="15">
+        <v>44230</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="31">
+        <v>1.6</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="4">
+        <v>44256</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44246</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="31">
+        <v>1.6</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="4">
+        <v>44249</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44253</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2</v>
-      </c>
-      <c r="K8" s="16">
-        <v>3</v>
-      </c>
-      <c r="L8" s="16">
-        <v>4</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="N8" s="39"/>
-    </row>
-    <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="20">
-        <v>44228</v>
-      </c>
-      <c r="H9" s="20">
-        <v>44228</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="20">
-        <v>44228</v>
-      </c>
-      <c r="H10" s="20">
-        <v>44230</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H11" s="6">
-        <v>44246</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="6">
-        <v>44249</v>
-      </c>
-      <c r="H12" s="6">
-        <v>44253</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="2"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11">
+      <c r="C14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="20" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F69C57-6DC1-4BD3-A548-5111ED14885A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16E8DFC-7882-451C-9694-A95FA6A0C831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>Legenda</t>
   </si>
   <si>
-    <t>Revisão: 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data: </t>
-  </si>
-  <si>
     <t>ADM</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Grupo Integrador</t>
   </si>
   <si>
-    <t xml:space="preserve"> (%) Total (500%)</t>
-  </si>
-  <si>
     <t>Comentários</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>Em desenvolvimento sem informação de três integrantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (%) Total (600%)</t>
+  </si>
+  <si>
+    <t>Revisão: 1.2</t>
+  </si>
+  <si>
+    <t>Data:  07/02/2021</t>
   </si>
 </sst>
 </file>
@@ -463,6 +463,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,48 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,7 +898,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="I4" sqref="I4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -936,132 +936,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
+      <c r="B5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1083,8 +1083,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1092,15 +1092,15 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="45"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="36"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>2.1</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,15 +1125,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="45"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="36"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1.6</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1158,15 +1158,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="45"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1.6</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1191,15 +1191,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="45"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>2.5</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1225,8 +1225,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1244,8 +1244,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1263,8 +1263,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1282,8 +1282,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1356,6 +1356,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1365,23 +1382,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16E8DFC-7882-451C-9694-A95FA6A0C831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,71 +462,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,8 +555,8 @@
       <xdr:rowOff>51708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>503316</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652995</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>280308</xdr:rowOff>
     </xdr:to>
@@ -891,23 +890,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -936,132 +935,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="50" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="52" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1083,8 +1082,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1097,10 +1096,10 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1130,10 +1129,10 @@
       <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1163,10 +1162,10 @@
       <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1196,10 +1195,10 @@
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1225,8 +1224,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1244,8 +1243,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1263,8 +1262,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1282,8 +1281,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1356,23 +1355,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1382,6 +1364,23 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4368D-3EA0-4FB5-8CDD-8427D44AE1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
@@ -102,9 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Em desenvolvimento sem informação de dois integrante </t>
-  </si>
-  <si>
-    <t>Em desenvolvimento sem informação de três integrantes</t>
   </si>
   <si>
     <t xml:space="preserve"> (%) Total (600%)</t>
@@ -119,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,6 +460,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,48 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,14 +888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,132 +933,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="38" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="33" t="s">
+      <c r="N6" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1082,8 +1080,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1096,10 +1094,10 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1129,10 +1127,10 @@
       <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1162,10 +1160,10 @@
       <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1178,10 +1176,10 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="31">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1195,10 +1193,10 @@
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1224,8 +1222,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1243,8 +1241,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1262,8 +1260,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1281,8 +1279,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1355,6 +1353,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1364,23 +1379,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4368D-3EA0-4FB5-8CDD-8427D44AE1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC27524-8EB2-43DF-81C6-1029421BF557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,71 +460,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +895,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -933,132 +933,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="50" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="52" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1080,8 +1080,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1094,10 +1094,10 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="31">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="O8" s="29" t="s">
         <v>24</v>
@@ -1127,10 +1127,10 @@
       <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="31">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="O9" s="29" t="s">
         <v>25</v>
@@ -1160,10 +1160,10 @@
       <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="31">
-        <v>1.9</v>
+        <v>4.25</v>
       </c>
       <c r="O10" s="29" t="s">
         <v>24</v>
@@ -1193,10 +1193,10 @@
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1222,8 +1222,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1241,8 +1241,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1260,8 +1260,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1279,8 +1279,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1353,23 +1353,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1379,6 +1362,23 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC27524-8EB2-43DF-81C6-1029421BF557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -96,15 +95,6 @@
     <t>Comentários</t>
   </si>
   <si>
-    <t>Em desenvolvimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em desenvolvimento sem informação de um integrante </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em desenvolvimento sem informação de dois integrante </t>
-  </si>
-  <si>
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
@@ -112,13 +102,19 @@
   </si>
   <si>
     <t>Data:  07/02/2021</t>
+  </si>
+  <si>
+    <t>CRUD'S E DOCUMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>AGUARDANDO FINALIZAÇÃO ROTAS, FROTAS, CHAMADOS P/ INTEGRAÇÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +140,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,8 +461,47 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,46 +527,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,14 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -911,7 +916,7 @@
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="80.7109375" customWidth="1"/>
+    <col min="15" max="15" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,132 +938,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="38" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="33" t="s">
+      <c r="N6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1080,8 +1085,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1094,10 +1099,10 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1110,10 +1115,10 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="31">
-        <v>3.85</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,10 +1132,10 @@
       <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1143,10 +1148,10 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="31">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1160,10 +1165,10 @@
       <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1176,10 +1181,10 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="31">
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,10 +1198,10 @@
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1209,10 +1214,10 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="31">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,8 +1227,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1241,8 +1246,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1260,8 +1265,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1279,8 +1284,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1288,7 +1293,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="32"/>
+      <c r="N15" s="55">
+        <f>SUM(N8:N13)</f>
+        <v>17.100000000000001</v>
+      </c>
       <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,6 +1310,9 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
+    <row r="17" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="54"/>
+    </row>
     <row r="20" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1353,6 +1364,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1362,23 +1390,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C892CB6-CC73-40C4-A27A-C814815C4782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,22 +105,22 @@
     <t xml:space="preserve"> (%) Total (600%)</t>
   </si>
   <si>
-    <t>Revisão: 1.2</t>
-  </si>
-  <si>
-    <t>Data:  07/02/2021</t>
-  </si>
-  <si>
     <t>CRUD'S E DOCUMENTAÇÃO</t>
   </si>
   <si>
     <t>AGUARDANDO FINALIZAÇÃO ROTAS, FROTAS, CHAMADOS P/ INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>Revisão: 1.4</t>
+  </si>
+  <si>
+    <t>Data:  11/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,74 +468,74 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,14 +900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -938,132 +945,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="48"/>
+      <c r="I4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="51" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,8 +1092,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="46"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1099,10 +1106,10 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1115,10 +1122,10 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="31">
-        <v>4.0999999999999996</v>
+        <v>2.85</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,10 +1139,10 @@
       <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1148,10 +1155,10 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,10 +1172,10 @@
       <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1181,10 +1188,10 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="31">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,10 +1205,10 @@
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>4.25</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1227,8 +1234,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1246,8 +1253,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1265,8 +1272,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1284,8 +1291,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1293,10 +1300,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="55">
-        <f>SUM(N8:N13)</f>
-        <v>17.100000000000001</v>
-      </c>
+      <c r="N15" s="33"/>
       <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,7 +1315,7 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="54"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="20" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="7"/>
@@ -1364,23 +1368,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1390,6 +1377,23 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/missao-integrador/cronograma_geral.xlsx
+++ b/missao-integrador/cronograma_geral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C892CB6-CC73-40C4-A27A-C814815C4782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4ABBB3-A176-4444-B4E0-6C4D7B425991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,10 +111,10 @@
     <t>AGUARDANDO FINALIZAÇÃO ROTAS, FROTAS, CHAMADOS P/ INTEGRAÇÃO</t>
   </si>
   <si>
-    <t>Revisão: 1.4</t>
-  </si>
-  <si>
-    <t>Data:  11/02/2021</t>
+    <t>Revisão: 1.5</t>
+  </si>
+  <si>
+    <t>Data:  12/02/2021</t>
   </si>
 </sst>
 </file>
@@ -472,6 +472,48 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,48 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,7 +907,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I4" sqref="I4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,132 +945,132 @@
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="45" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="38" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="39" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1092,8 +1092,8 @@
       <c r="M7" s="23">
         <v>1</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="34"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1106,10 +1106,10 @@
       <c r="D8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="15">
         <v>44228</v>
       </c>
@@ -1139,10 +1139,10 @@
       <c r="D9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="15">
         <v>44228</v>
       </c>
@@ -1172,10 +1172,10 @@
       <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="4">
         <v>44256</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="31">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O10" s="29" t="s">
         <v>24</v>
@@ -1205,10 +1205,10 @@
       <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="4">
         <v>44249</v>
       </c>
@@ -1234,8 +1234,8 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="5"/>
@@ -1253,8 +1253,8 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5"/>
@@ -1272,8 +1272,8 @@
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5"/>
@@ -1291,8 +1291,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1368,6 +1368,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1377,23 +1394,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
